--- a/plan/test/repository/単体テスト仕様書-OrderStatusRepository.xlsx
+++ b/plan/test/repository/単体テスト仕様書-OrderStatusRepository.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27726"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27830"/>
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\fullness\Desktop\work\javaReview\ec-b\plan\test\repository\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\fullness\Desktop\work\java-review\ec-b\plan\test\repository\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{031FB3C9-A7C8-4EF2-9661-0A42EAF71ACE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B6D9CE61-86B0-456F-8DA1-F7B8F763E136}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1800" yWindow="0" windowWidth="15140" windowHeight="9030" tabRatio="888" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" tabRatio="888" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="OrderRepository" sheetId="166" r:id="rId1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="24">
   <si>
     <t>作成者</t>
   </si>
@@ -133,10 +133,6 @@
     <rPh sb="3" eb="5">
       <t xml:space="preserve">タイショウ </t>
     </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>FS</t>
     <phoneticPr fontId="2"/>
   </si>
   <si>
@@ -192,6 +188,27 @@
     <rPh sb="30" eb="31">
       <t>ダ</t>
     </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>日本証券テクノロジー</t>
+    <rPh sb="0" eb="2">
+      <t>ニホン</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>ショウケン</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>舘川</t>
+    <rPh sb="0" eb="2">
+      <t>タテカワ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>〇</t>
     <phoneticPr fontId="2"/>
   </si>
 </sst>
@@ -350,7 +367,7 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="25">
+  <cellXfs count="26">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -395,7 +412,16 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="2" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -415,14 +441,8 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="14" fontId="6" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -776,8 +796,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:Q5"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" view="pageBreakPreview" topLeftCell="D1" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="P8" sqref="P8"/>
+    <sheetView showGridLines="0" tabSelected="1" view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="O5" sqref="O5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="7" defaultRowHeight="11.25" customHeight="1"/>
@@ -789,61 +809,62 @@
     <col min="8" max="12" width="7.1796875" style="4" customWidth="1"/>
     <col min="13" max="13" width="8.36328125" style="4" customWidth="1"/>
     <col min="14" max="15" width="9.6328125" style="4" customWidth="1"/>
-    <col min="16" max="17" width="12.36328125" style="4" customWidth="1"/>
+    <col min="16" max="16" width="12.36328125" style="4" customWidth="1"/>
+    <col min="17" max="17" width="16.7265625" style="4" bestFit="1" customWidth="1"/>
     <col min="18" max="16384" width="7" style="4"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:17" ht="18.75" customHeight="1">
-      <c r="A1" s="23" t="s">
+      <c r="A1" s="17" t="s">
         <v>3</v>
       </c>
-      <c r="B1" s="23"/>
-      <c r="C1" s="24" t="s">
+      <c r="B1" s="17"/>
+      <c r="C1" s="18" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="24"/>
-      <c r="E1" s="24"/>
-      <c r="F1" s="24" t="s">
-        <v>16</v>
-      </c>
-      <c r="G1" s="24"/>
-      <c r="H1" s="24"/>
-      <c r="I1" s="24"/>
-      <c r="J1" s="24"/>
-      <c r="K1" s="24"/>
-      <c r="L1" s="24"/>
-      <c r="M1" s="24"/>
+      <c r="D1" s="18"/>
+      <c r="E1" s="18"/>
+      <c r="F1" s="18" t="s">
+        <v>15</v>
+      </c>
+      <c r="G1" s="18"/>
+      <c r="H1" s="18"/>
+      <c r="I1" s="18"/>
+      <c r="J1" s="18"/>
+      <c r="K1" s="18"/>
+      <c r="L1" s="18"/>
+      <c r="M1" s="18"/>
       <c r="N1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="O1" s="2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="P1" s="1" t="s">
         <v>4</v>
       </c>
       <c r="Q1" s="3" t="s">
-        <v>15</v>
+        <v>21</v>
       </c>
     </row>
     <row r="2" spans="1:17" ht="18.75" customHeight="1">
-      <c r="A2" s="23"/>
-      <c r="B2" s="23"/>
-      <c r="C2" s="24" t="s">
+      <c r="A2" s="17"/>
+      <c r="B2" s="17"/>
+      <c r="C2" s="18" t="s">
         <v>13</v>
       </c>
-      <c r="D2" s="24"/>
-      <c r="E2" s="24"/>
-      <c r="F2" s="24" t="s">
-        <v>18</v>
-      </c>
-      <c r="G2" s="24"/>
-      <c r="H2" s="24"/>
-      <c r="I2" s="24"/>
-      <c r="J2" s="24"/>
-      <c r="K2" s="24"/>
-      <c r="L2" s="24"/>
-      <c r="M2" s="24"/>
+      <c r="D2" s="18"/>
+      <c r="E2" s="18"/>
+      <c r="F2" s="18" t="s">
+        <v>17</v>
+      </c>
+      <c r="G2" s="18"/>
+      <c r="H2" s="18"/>
+      <c r="I2" s="18"/>
+      <c r="J2" s="18"/>
+      <c r="K2" s="18"/>
+      <c r="L2" s="18"/>
+      <c r="M2" s="18"/>
       <c r="N2" s="1" t="s">
         <v>1</v>
       </c>
@@ -888,13 +909,13 @@
       <c r="E4" s="14"/>
       <c r="F4" s="14"/>
       <c r="G4" s="14"/>
-      <c r="H4" s="16" t="s">
+      <c r="H4" s="19" t="s">
         <v>8</v>
       </c>
-      <c r="I4" s="17"/>
-      <c r="J4" s="17"/>
-      <c r="K4" s="17"/>
-      <c r="L4" s="18"/>
+      <c r="I4" s="20"/>
+      <c r="J4" s="20"/>
+      <c r="K4" s="20"/>
+      <c r="L4" s="21"/>
       <c r="M4" s="9" t="s">
         <v>12</v>
       </c>
@@ -914,30 +935,40 @@
         <v>1</v>
       </c>
       <c r="B5" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="C5" s="15" t="s">
         <v>19</v>
       </c>
-      <c r="C5" s="22" t="s">
+      <c r="D5" s="16"/>
+      <c r="E5" s="16"/>
+      <c r="F5" s="16"/>
+      <c r="G5" s="16"/>
+      <c r="H5" s="22" t="s">
         <v>20</v>
       </c>
-      <c r="D5" s="15"/>
-      <c r="E5" s="15"/>
-      <c r="F5" s="15"/>
-      <c r="G5" s="15"/>
-      <c r="H5" s="19" t="s">
-        <v>21</v>
-      </c>
-      <c r="I5" s="20"/>
-      <c r="J5" s="20"/>
-      <c r="K5" s="20"/>
-      <c r="L5" s="21"/>
-      <c r="M5" s="11"/>
-      <c r="N5" s="11"/>
-      <c r="O5" s="11"/>
-      <c r="P5" s="15"/>
-      <c r="Q5" s="15"/>
+      <c r="I5" s="23"/>
+      <c r="J5" s="23"/>
+      <c r="K5" s="23"/>
+      <c r="L5" s="24"/>
+      <c r="M5" s="11" t="s">
+        <v>22</v>
+      </c>
+      <c r="N5" s="25">
+        <v>45510</v>
+      </c>
+      <c r="O5" s="11" t="s">
+        <v>23</v>
+      </c>
+      <c r="P5" s="16"/>
+      <c r="Q5" s="16"/>
     </row>
   </sheetData>
   <mergeCells count="11">
+    <mergeCell ref="P4:Q4"/>
+    <mergeCell ref="P5:Q5"/>
+    <mergeCell ref="H4:L4"/>
+    <mergeCell ref="H5:L5"/>
     <mergeCell ref="C4:G4"/>
     <mergeCell ref="C5:G5"/>
     <mergeCell ref="A1:B2"/>
@@ -945,10 +976,6 @@
     <mergeCell ref="C2:E2"/>
     <mergeCell ref="F1:M1"/>
     <mergeCell ref="F2:M2"/>
-    <mergeCell ref="P4:Q4"/>
-    <mergeCell ref="P5:Q5"/>
-    <mergeCell ref="H4:L4"/>
-    <mergeCell ref="H5:L5"/>
   </mergeCells>
   <phoneticPr fontId="2"/>
   <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
